--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">

--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Villa</t>
+          <t>PFV Romeral Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>Romeral Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5400</v>
+        <v>11750</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151457161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157318556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151187593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151457161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Lourdes</t>
+          <t>Parque Solar Fotovoltaico La Villa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151187593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Servicios de vinificación Las Águilas</t>
+          <t>Parque Solar Fotovoltaico Lourdes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Las Aguilas SpA</t>
+          <t>ORION POWER S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>27000</v>
+        <v>6600</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Pasta de Tomates y Pulpas de Frutas</t>
+          <t>Servicios de vinificación Las Águilas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sugal Chile Limitada</t>
+          <t>Las Aguilas SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/07/2019</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143760839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta de Elaboración de Pasta de Tomates y Pulpas de Frutas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Sugal Chile Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>19/07/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143760839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Planta Fotovoltaica Quinta"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GR Guindo SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7800</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Planta Fotovoltaica Quinta"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Guindo SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>7800</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Tomates y Frutas, Quinta de Tilcoco</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sugal Chile Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/08/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132553102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Procesadora de Tomates y Frutas, Quinta de Tilcoco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Sugal Chile Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/08/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132553102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN EN EL SUELO DE AGUAS RESIDUALES PISCICULTURA RINCONADA DE GUACARHUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Felipe Andrés Vega Carvajal</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN EN EL SUELO DE AGUAS RESIDUALES PISCICULTURA RINCONADA DE GUACARHUE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Felipe Andrés Vega Carvajal</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DRENAJE PARCELAS 15, 16 Y 18, LOS NOGALES (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mónica Cruz Unzueta</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas El Arenal (e-seia)</t>
+          <t>DRENAJE PARCELAS 15, 16 Y 18, LOS NOGALES (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>I. Municipalidad Quinta deTilcoco</t>
+          <t>Mónica Cruz Unzueta</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/11/2008</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas El Arenal (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>I. Municipalidad Quinta deTilcoco</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1750</v>
+        <v>238</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>13/11/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quinta de Tilcoco Tilcoco (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2600</v>
+        <v>1650</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2994746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Quinta de Tilcoco Quinta de Tilcoco (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Quinta de Tilcoco Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>26/06/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2967714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2994746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Quinta de Tilcoco Quinta de Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2967714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Sistema de Tratamiento y Disposición de Riles Bodega de Vinos Jorge Edwards Larraín (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Las Aguilas SpA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Sistema de Tratamiento y Disposición de Riles Bodega de Vinos Jorge Edwards Larraín (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Las Aguilas SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>08/11/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Quinta de Tilcoco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sugal Chile Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2800</v>
+        <v>138</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Quinta de Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sugal Chile Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL QUINTA DE TILCOCO. LOCALIDADES DE QUINTA DE TILCOCO Y GUACARGUE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE QUINTA DE TILCOCO</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL QUINTA DE TILCOCO. LOCALIDADES DE QUINTA DE TILCOCO Y GUACARGUE (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ILUSTRE MUNICIPALIDAD DE QUINTA DE TILCOCO</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>22/12/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Instalación de Sistema Provisional de Tratamiento y Disposición Final de Aguas Servidas para el Sector Centro Poniente de la Localidad de Quinta de Tilcoco</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quinta de Tilcoco</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,43 +3400,91 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Instalación de Sistema Provisional de Tratamiento y Disposición Final de Aguas Servidas para el Sector Centro Poniente de la Localidad de Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidad de Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>630</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>03/08/2001</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4263&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Quinta de Tilcoco</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Proyecto Línea de Transmision 66 kv Malloa - Quinta de Tilcoco y Subestación Transformadora 66/15 KV Quinta de Tilcoco</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F65" t="n">
         <v>1740</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>02/10/1998</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Quinta de Tilcoco</t>
         </is>

--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PFV Romeral Solar</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Romeral Solar SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11750</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2022</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157318556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico La Villa</t>
+          <t>PFV Romeral Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>Romeral Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5400</v>
+        <v>11750</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/05/2021</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151457161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157318556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>25/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151187593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151457161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Lourdes</t>
+          <t>Parque Solar Fotovoltaico La Villa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151187593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Servicios de vinificación Las Águilas</t>
+          <t>Parque Solar Fotovoltaico Lourdes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Las Aguilas SpA</t>
+          <t>ORION POWER S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>27000</v>
+        <v>6600</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04/11/2019</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Pasta de Tomates y Pulpas de Frutas</t>
+          <t>Servicios de vinificación Las Águilas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sugal Chile Limitada</t>
+          <t>Las Aguilas SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/07/2019</t>
+          <t>04/11/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143760839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144460985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta de Elaboración de Pasta de Tomates y Pulpas de Frutas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Sugal Chile Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>19/07/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143760839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Planta Fotovoltaica Quinta"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Guindo SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7800</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Planta Fotovoltaica Quinta"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Guindo SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>7800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Tomates y Frutas, Quinta de Tilcoco</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sugal Chile Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/08/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132553102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Procesadora de Tomates y Frutas, Quinta de Tilcoco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Sugal Chile Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/08/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132553102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN EN EL SUELO DE AGUAS RESIDUALES PISCICULTURA RINCONADA DE GUACARHUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Felipe Andrés Vega Carvajal</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN EN EL SUELO DE AGUAS RESIDUALES PISCICULTURA RINCONADA DE GUACARHUE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Felipe Andrés Vega Carvajal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,21 +1115,21 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DRENAJE PARCELAS 15, 16 Y 18, LOS NOGALES (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mónica Cruz Unzueta</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>29/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Tratamiento de Aguas Servidas El Arenal (e-seia)</t>
+          <t>DRENAJE PARCELAS 15, 16 Y 18, LOS NOGALES (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I. Municipalidad Quinta deTilcoco</t>
+          <t>Mónica Cruz Unzueta</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/11/2008</t>
+          <t>29/04/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliación Planta de Tratamiento de Aguas Servidas El Arenal (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>I. Municipalidad Quinta deTilcoco</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1750</v>
+        <v>238</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>13/11/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3342058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quinta de Tilcoco Tilcoco (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2600</v>
+        <v>1650</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2994746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Quinta de Tilcoco Quinta de Tilcoco (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Quinta de Tilcoco Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>26/06/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2967714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2994746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Quinta de Tilcoco Quinta de Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2967714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Sistema de Tratamiento y Disposición de Riles Bodega de Vinos Jorge Edwards Larraín (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Las Aguilas SpA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Sistema de Tratamiento y Disposición de Riles Bodega de Vinos Jorge Edwards Larraín (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Las Aguilas SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>08/11/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Quinta de Tilcoco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sugal Chile Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2800</v>
+        <v>138</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Quinta de Tilcoco (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Sugal Chile Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/04/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1407017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL QUINTA DE TILCOCO. LOCALIDADES DE QUINTA DE TILCOCO Y GUACARGUE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE QUINTA DE TILCOCO</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL QUINTA DE TILCOCO. LOCALIDADES DE QUINTA DE TILCOCO Y GUACARGUE (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>ILUSTRE MUNICIPALIDAD DE QUINTA DE TILCOCO</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>22/12/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Instalación de Sistema Provisional de Tratamiento y Disposición Final de Aguas Servidas para el Sector Centro Poniente de la Localidad de Quinta de Tilcoco</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quinta de Tilcoco</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,43 +3448,91 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Instalación de Sistema Provisional de Tratamiento y Disposición Final de Aguas Servidas para el Sector Centro Poniente de la Localidad de Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidad de Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>630</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>03/08/2001</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4263&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Quinta de Tilcoco</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Proyecto Línea de Transmision 66 kv Malloa - Quinta de Tilcoco y Subestación Transformadora 66/15 KV Quinta de Tilcoco</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F66" t="n">
         <v>1740</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>02/10/1998</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Quinta de Tilcoco</t>
         </is>

--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quinta de Tilcoco.xlsx
+++ b/data/Quinta de Tilcoco.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
